--- a/current.xlsx
+++ b/current.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F539"/>
+  <dimension ref="A1:F537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>朱家桥邮政支局</t>
+          <t>唐行邮政支局</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15850</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15851</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>唐行邮政支局</t>
+          <t>徐行邮政支局</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15851</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15852</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>徐行邮政支局</t>
+          <t>曹王邮政支局</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15852</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15853</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>曹王邮政支局</t>
+          <t>华亭邮政支局</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15853</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15854</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>华亭邮政支局</t>
+          <t>封浜邮政支局</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15854</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15855</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>封浜邮政支局</t>
+          <t>叶城路邮政支局</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15855</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15856</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>叶城路邮政支局</t>
+          <t>新成路邮政支局</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15856</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15857</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>新成路邮政支局</t>
+          <t>戬浜邮政支局</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15857</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15858</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>戬浜邮政支局</t>
+          <t>丰庄邮政支局</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15858</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15860</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>丰庄邮政支局</t>
+          <t>真新邮政所</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15860</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15861</t>
         </is>
       </c>
     </row>
@@ -1965,17 +1965,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>嘉定区</t>
+          <t>静安区</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>嘉定区</t>
+          <t>静安区</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>真新邮政所</t>
+          <t>常熟路邮政所</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15861</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15862</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>常熟路邮政所</t>
+          <t>西康路邮政所</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15862</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15863</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>西康路邮政所</t>
+          <t>武定路邮政所</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15863</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15864</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>武定路邮政所</t>
+          <t>石门二路邮政支局</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15864</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15865</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>石门二路邮政支局</t>
+          <t>石门一路邮政所</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15865</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15866</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>石门一路邮政所</t>
+          <t>曹家渡邮政支局</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15866</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15867</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>曹家渡邮政支局</t>
+          <t>武宁南路邮政所</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15867</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15868</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>武宁南路邮政所</t>
+          <t>闸北邮政支局</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15868</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15869</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>闸北邮政支局</t>
+          <t>柳营桥邮政所</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15869</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15870</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>柳营桥邮政所</t>
+          <t>芷江西路邮政所</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15870</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15871</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>芷江西路邮政所</t>
+          <t>天目路邮政支局</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15871</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15872</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>天目路邮政支局</t>
+          <t>鸿兴路邮政所</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15872</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15873</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>鸿兴路邮政所</t>
+          <t>共和新路邮政支局</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15873</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15874</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>共和新路邮政支局</t>
+          <t>闸北公园邮政所</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15874</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15875</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>闸北公园邮政所</t>
+          <t>杨家宅邮政所</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15875</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15876</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>杨家宅邮政所</t>
+          <t>原平路邮政所</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15876</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15877</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>原平路邮政所</t>
+          <t>火车站邮政支局</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15877</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15878</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>火车站邮政支局</t>
+          <t>彭浦新村邮政支局</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15878</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15879</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>彭浦新村邮政支局</t>
+          <t>汾西路邮政所</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15879</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15880</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>汾西路邮政所</t>
+          <t>平顺路邮政所</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15880</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15881</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>平顺路邮政所</t>
+          <t>闻喜路邮政所</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15881</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15882</t>
         </is>
       </c>
     </row>
@@ -2637,17 +2637,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>静安区</t>
+          <t>崇明区</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>静安区</t>
+          <t>崇明区</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>闻喜路邮政所</t>
+          <t>长兴邮政支局</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15882</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15883</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>长兴邮政支局</t>
+          <t>前卫邮政所</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15883</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15884</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>前卫邮政所</t>
+          <t>潘石邮政所</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15884</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15886</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>潘石邮政所</t>
+          <t>横沙邮政支局</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15886</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15887</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>横沙邮政支局</t>
+          <t>南门邮政支局</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15887</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15888</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>南门邮政支局</t>
+          <t>桥镇邮政所</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15888</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15889</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>桥镇邮政所</t>
+          <t>玉环路邮政所</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15889</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15890</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>玉环路邮政所</t>
+          <t>南盘滧邮政支局</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15890</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15891</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>南盘滧邮政支局</t>
+          <t>城北邮政所</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15891</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15892</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>城北邮政所</t>
+          <t>长征邮政支局</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15892</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15893</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>长征邮政支局</t>
+          <t>庙镇邮政支局</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15893</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15894</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>庙镇邮政支局</t>
+          <t>草棚镇邮政支局</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15894</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15895</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>草棚镇邮政支局</t>
+          <t>海桥邮政所</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15895</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15896</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>海桥邮政所</t>
+          <t>新建邮政所</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15896</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15897</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>新建邮政所</t>
+          <t>合作邮政所</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15897</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15898</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>合作邮政所</t>
+          <t>江口邮政所</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15898</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15899</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>江口邮政所</t>
+          <t>侯家镇邮政支局</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15899</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15900</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>侯家镇邮政支局</t>
+          <t>建设邮政所</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15900</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15901</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>建设邮政所</t>
+          <t>大同邮政所</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15901</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15902</t>
         </is>
       </c>
     </row>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>大同邮政所</t>
+          <t>长江邮政支局</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15902</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15903</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>长江邮政支局</t>
+          <t>东风邮政支局</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15903</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15904</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>东风邮政支局</t>
+          <t>新河邮政支局</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15904</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15905</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>新河邮政支局</t>
+          <t>新民邮政所</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15905</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15906</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>新民邮政所</t>
+          <t>堡镇邮政支局</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15906</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15907</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>堡镇邮政支局</t>
+          <t>五滧邮政所</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15907</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15908</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>五滧邮政所</t>
+          <t>向化邮政支局</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15908</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15909</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>向化邮政支局</t>
+          <t>汲浜邮政支局</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15909</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15910</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>汲浜邮政支局</t>
+          <t>港沿邮政支局</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15910</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15911</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>港沿邮政支局</t>
+          <t>合兴邮政所</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15911</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15912</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>合兴邮政所</t>
+          <t>响椿路邮政支局</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15912</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15913</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>响椿路邮政支局</t>
+          <t>前进邮政所</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15913</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15914</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>前进邮政所</t>
+          <t>竖新邮政所</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15914</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15915</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>竖新邮政所</t>
+          <t>陈家镇邮政支局</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15915</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15916</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>陈家镇邮政支局</t>
+          <t>裕安邮政所</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15916</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15917</t>
         </is>
       </c>
     </row>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>裕安邮政所</t>
+          <t>前哨邮政支局</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15917</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15918</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>前哨邮政支局</t>
+          <t>新海邮政支局</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15918</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15919</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>新海邮政支局</t>
+          <t>新村邮政所</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15919</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15920</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>新村邮政所</t>
+          <t>跃进邮政支局</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15920</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15921</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>跃进邮政支局</t>
+          <t>红星邮政支局</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15921</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15922</t>
         </is>
       </c>
     </row>
@@ -3885,17 +3885,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>崇明区</t>
+          <t>闵行区</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>崇明区</t>
+          <t>闵行区</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>红星邮政支局</t>
+          <t>莘庄邮政支局</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15922</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15923</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>莘庄邮政支局</t>
+          <t>莘松新村邮政所</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15923</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15924</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>莘松新村邮政所</t>
+          <t>黎安邮政所</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15924</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15925</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>黎安邮政所</t>
+          <t>报春路邮政所</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15925</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15926</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>报春路邮政所</t>
+          <t>七宝邮政支局</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15926</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15927</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>七宝邮政支局</t>
+          <t>万科花园邮政所</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15927</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15928</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>万科花园邮政所</t>
+          <t>静安新城邮政所</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15928</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15929</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>静安新城邮政所</t>
+          <t>虹莘路邮政所</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15929</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15930</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>虹莘路邮政所</t>
+          <t>古美路邮政支局</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15930</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15931</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>古美路邮政支局</t>
+          <t>平阳新村邮政所</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15931</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15933</t>
         </is>
       </c>
     </row>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>平阳新村邮政所</t>
+          <t>锦江乐园邮政所</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15933</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15934</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>锦江乐园邮政所</t>
+          <t>虹桥邮政支局</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15934</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15935</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>虹桥邮政支局</t>
+          <t>金汇花园邮政所</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15935</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15936</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>金汇花园邮政所</t>
+          <t>黄桦路邮政所</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15936</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15937</t>
         </is>
       </c>
     </row>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>黄桦路邮政所</t>
+          <t>伟业路邮政支局</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15937</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15938</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>伟业路邮政支局</t>
+          <t>罗阳邮政所</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15938</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15939</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>罗阳邮政所</t>
+          <t>莘朱路邮政所</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15939</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15940</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>莘朱路邮政所</t>
+          <t>航华邮政支局</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15940</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15941</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>航华邮政支局</t>
+          <t>航华一村邮政所</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15941</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15942</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>航华一村邮政所</t>
+          <t>华漕邮政支局</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15942</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15943</t>
         </is>
       </c>
     </row>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>华漕邮政支局</t>
+          <t>诸翟邮政支局</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15943</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15944</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>诸翟邮政支局</t>
+          <t>纪王邮政所</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15944</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15945</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>纪王邮政所</t>
+          <t>颛桥邮政支局</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15945</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15946</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>颛桥邮政支局</t>
+          <t>曹行邮政所</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15946</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15947</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>曹行邮政所</t>
+          <t>颛建路邮政所</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15947</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15948</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>颛建路邮政所</t>
+          <t>申北路邮政所</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15948</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15949</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>申北路邮政所</t>
+          <t>北桥邮政支局</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15949</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15950</t>
         </is>
       </c>
     </row>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>北桥邮政支局</t>
+          <t>鑫都路邮政所</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15950</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15951</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>鑫都路邮政所</t>
+          <t>君莲邮政所</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15951</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15952</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>君莲邮政所</t>
+          <t>马桥邮政支局</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15952</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15953</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>马桥邮政支局</t>
+          <t>银春路邮政支局</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15953</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15954</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>银春路邮政支局</t>
+          <t>浦江邮政支局</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15954</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15955</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>浦江邮政支局</t>
+          <t>江月路邮政所</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15955</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15956</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>江月路邮政所</t>
+          <t>鲁汇邮政所</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15956</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15957</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>鲁汇邮政所</t>
+          <t>浦航路邮政所</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15957</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15958</t>
         </is>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>浦航路邮政所</t>
+          <t>沪闵路邮政支局</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15958</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15960</t>
         </is>
       </c>
     </row>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>沪闵路邮政支局</t>
+          <t>宾川路邮政所</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15960</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15961</t>
         </is>
       </c>
     </row>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>宾川路邮政所</t>
+          <t>红旗新村邮政所</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15961</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15962</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>红旗新村邮政所</t>
+          <t>江川路邮政所</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15962</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15963</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>江川路邮政所</t>
+          <t>交大二部邮政所</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15963</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15964</t>
         </is>
       </c>
     </row>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>交大二部邮政所</t>
+          <t>东川路邮政所</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15964</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15965</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>东川路邮政所</t>
+          <t>吴泾邮政支局</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15965</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15966</t>
         </is>
       </c>
     </row>
@@ -5229,17 +5229,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>闵行区</t>
+          <t>长宁区</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>闵行区</t>
+          <t>长宁区</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>吴泾邮政支局</t>
+          <t>长宁邮政支局</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15966</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15967</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>长宁邮政支局</t>
+          <t>昭化路邮政所</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15967</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15968</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>昭化路邮政所</t>
+          <t>天山路邮政支局</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15968</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15969</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>天山路邮政支局</t>
+          <t>安顺路邮政所</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15969</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15970</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>安顺路邮政所</t>
+          <t>中山西路邮政所</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15970</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15971</t>
         </is>
       </c>
     </row>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>中山西路邮政所</t>
+          <t>新华路邮政支局</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15971</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15972</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>新华路邮政支局</t>
+          <t>北新泾邮政支局</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15972</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15973</t>
         </is>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>北新泾邮政支局</t>
+          <t>天山西路邮政所</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15973</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15974</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>天山西路邮政所</t>
+          <t>平塘路邮政所</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15974</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15976</t>
         </is>
       </c>
     </row>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>平塘路邮政所</t>
+          <t>蒲淞北路邮政所</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15976</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15977</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>蒲淞北路邮政所</t>
+          <t>仙霞路邮政支局</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15977</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15978</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>仙霞路邮政支局</t>
+          <t>程家桥邮政所</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15978</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15979</t>
         </is>
       </c>
     </row>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>程家桥邮政所</t>
+          <t>仙霞新村邮政所</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15979</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15980</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>仙霞新村邮政所</t>
+          <t>天山五村邮政所</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15980</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15981</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>天山五村邮政所</t>
+          <t>世贸大厦邮政所</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15981</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15982</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>世贸大厦邮政所</t>
+          <t>东方国际大厦邮政所</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15982</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15984</t>
         </is>
       </c>
     </row>
@@ -5741,17 +5741,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>长宁区</t>
+          <t>松江区</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>长宁区</t>
+          <t>松江区</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>东方国际大厦邮政所</t>
+          <t>人民路邮政支局</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15984</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15985</t>
         </is>
       </c>
     </row>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>人民路邮政支局</t>
+          <t>妙严寺邮政所</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15985</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15986</t>
         </is>
       </c>
     </row>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>妙严寺邮政所</t>
+          <t>松汇西路邮政所</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15986</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15988</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>松汇西路邮政所</t>
+          <t>中山街邮政所</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15988</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15989</t>
         </is>
       </c>
     </row>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>中山街邮政所</t>
+          <t>泗泾邮政支局</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15989</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15991</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>泗泾邮政支局</t>
+          <t>洞泾邮政支局</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15991</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15992</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>洞泾邮政支局</t>
+          <t>陈坊桥邮政支局</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5953,7 +5953,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15992</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15993</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>陈坊桥邮政支局</t>
+          <t>天马邮政所</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15993</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15994</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>天马邮政所</t>
+          <t>石湖荡邮政支局</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15994</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15995</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>石湖荡邮政支局</t>
+          <t>塔汇邮政所</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15995</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15996</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>塔汇邮政所</t>
+          <t>泖港邮政支局</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15996</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15997</t>
         </is>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>泖港邮政支局</t>
+          <t>新五邮政所</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15997</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15998</t>
         </is>
       </c>
     </row>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>新五邮政所</t>
+          <t>新浜邮政所</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15998</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15999</t>
         </is>
       </c>
     </row>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>新浜邮政所</t>
+          <t>叶榭邮政支局</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=15999</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16000</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>叶榭邮政支局</t>
+          <t>张泽邮政所</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16000</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16001</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>张泽邮政所</t>
+          <t>华阳桥邮政所</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16001</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16002</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>华阳桥邮政所</t>
+          <t>南乐路邮政所</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16002</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16004</t>
         </is>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>南乐路邮政所</t>
+          <t>新桥邮政支局</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16004</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16005</t>
         </is>
       </c>
     </row>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>新桥邮政支局</t>
+          <t>九亭大街邮政所</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16005</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16006</t>
         </is>
       </c>
     </row>
@@ -6359,7 +6359,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>九亭大街邮政所</t>
+          <t>九亭邮政支局</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16006</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16007</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>九亭邮政支局</t>
+          <t>涞寅路邮政所</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16007</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16008</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>涞寅路邮政所</t>
+          <t>小昆山邮政支局</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16008</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16009</t>
         </is>
       </c>
     </row>
@@ -6455,7 +6455,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>小昆山邮政支局</t>
+          <t>大港邮政所</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16009</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16010</t>
         </is>
       </c>
     </row>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>大港邮政所</t>
+          <t>东开邮政支局</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16010</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16011</t>
         </is>
       </c>
     </row>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>东开邮政支局</t>
+          <t>五龙邮政所</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16011</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16012</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>五龙邮政所</t>
+          <t>中山邮政所</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16012</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16013</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>中山邮政所</t>
+          <t>龙源路邮政支局</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16013</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16014</t>
         </is>
       </c>
     </row>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>龙源路邮政支局</t>
+          <t>南期昌路邮政所</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16014</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16015</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>南期昌路邮政所</t>
+          <t>文汇路邮政所</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16015</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16016</t>
         </is>
       </c>
     </row>
@@ -6669,17 +6669,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>松江区</t>
+          <t>徐汇区</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>松江区</t>
+          <t>徐汇区</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>文汇路邮政所</t>
+          <t>徐汇邮政支局</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16016</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16017</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>徐汇邮政支局</t>
+          <t>衡山路邮政所</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16017</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16018</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>衡山路邮政所</t>
+          <t>武康大楼邮政所</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16018</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16019</t>
         </is>
       </c>
     </row>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>武康大楼邮政所</t>
+          <t>上海体育场邮政支局</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16019</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16020</t>
         </is>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>上海体育场邮政支局</t>
+          <t>南丹东路邮政所</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -6817,7 +6817,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16020</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16021</t>
         </is>
       </c>
     </row>
@@ -6839,7 +6839,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>南丹东路邮政所</t>
+          <t>宛平南路邮政所</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16021</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16022</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>宛平南路邮政所</t>
+          <t>乐山路邮政支局</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16022</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16023</t>
         </is>
       </c>
     </row>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>乐山路邮政支局</t>
+          <t>交通大学邮政所</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -6913,7 +6913,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16023</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16024</t>
         </is>
       </c>
     </row>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>交通大学邮政所</t>
+          <t>淮海中路邮政支局</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16024</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16025</t>
         </is>
       </c>
     </row>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>淮海中路邮政支局</t>
+          <t>陕西南路邮政所</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16025</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16026</t>
         </is>
       </c>
     </row>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>陕西南路邮政所</t>
+          <t>复兴中路邮政所</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16026</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16027</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>复兴中路邮政所</t>
+          <t>东安路邮政支局</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16027</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16028</t>
         </is>
       </c>
     </row>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>东安路邮政支局</t>
+          <t>枫林桥邮政所</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16028</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16029</t>
         </is>
       </c>
     </row>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>枫林桥邮政所</t>
+          <t>大木桥青年邮政所</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16029</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16030</t>
         </is>
       </c>
     </row>
@@ -7127,7 +7127,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>大木桥青年邮政所</t>
+          <t>华泾邮政支局</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16030</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16031</t>
         </is>
       </c>
     </row>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>华泾邮政支局</t>
+          <t>长桥邮政所</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16031</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16032</t>
         </is>
       </c>
     </row>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>长桥邮政所</t>
+          <t>罗香邮政所</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16032</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16033</t>
         </is>
       </c>
     </row>
@@ -7223,7 +7223,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>罗香邮政所</t>
+          <t>园南新村邮政所</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16033</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16034</t>
         </is>
       </c>
     </row>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>园南新村邮政所</t>
+          <t>港口邮政所</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16034</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16035</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>港口邮政所</t>
+          <t>龙华邮政支局</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -7297,7 +7297,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16035</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16036</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>龙华邮政支局</t>
+          <t>石龙路邮政所</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16036</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16037</t>
         </is>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>石龙路邮政所</t>
+          <t>龙水路邮政所</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16037</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16038</t>
         </is>
       </c>
     </row>
@@ -7383,7 +7383,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>龙水路邮政所</t>
+          <t>龙华路邮政所</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16038</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16039</t>
         </is>
       </c>
     </row>
@@ -7415,7 +7415,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>龙华旅游城邮政所</t>
+          <t>龙南邮政所</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16039</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16040</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>龙南邮政所</t>
+          <t>漕河泾邮政支局</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16040</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16041</t>
         </is>
       </c>
     </row>
@@ -7479,7 +7479,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>漕河泾邮政支局</t>
+          <t>古美新村邮政所</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16041</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16042</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>古美新村邮政所</t>
+          <t>桂林路邮政所</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16042</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16043</t>
         </is>
       </c>
     </row>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>桂林路邮政所</t>
+          <t>田林新村邮政所</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16043</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16044</t>
         </is>
       </c>
     </row>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>田林新村邮政所</t>
+          <t>桂林西街邮政所</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16044</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16045</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>桂林西街邮政所</t>
+          <t>习勤路邮政支局</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16045</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16048</t>
         </is>
       </c>
     </row>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>柳州路邮政所</t>
+          <t>师范大学邮政所</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16047</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16049</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>习勤路邮政支局</t>
+          <t>漕溪新村邮政所</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16048</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16050</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>师范大学邮政所</t>
+          <t>康乐邮政所</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16049</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16051</t>
         </is>
       </c>
     </row>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>漕溪新村邮政所</t>
+          <t>梅陇邮政支局</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16050</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16052</t>
         </is>
       </c>
     </row>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>康乐邮政所</t>
+          <t>百色路邮政所</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16051</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16053</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>梅陇邮政支局</t>
+          <t>华东理工邮政所</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16052</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16054</t>
         </is>
       </c>
     </row>
@@ -7821,17 +7821,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>徐汇区</t>
+          <t>宝山区</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>徐汇区</t>
+          <t>宝山区</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>百色路邮政所</t>
+          <t>泗塘邮政支局</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16053</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16055</t>
         </is>
       </c>
     </row>
@@ -7853,17 +7853,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>徐汇区</t>
+          <t>宝山区</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>徐汇区</t>
+          <t>宝山区</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>华东理工邮政所</t>
+          <t>张庙邮政所</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16054</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16056</t>
         </is>
       </c>
     </row>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>泗塘邮政支局</t>
+          <t>淞南邮政所</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16055</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16057</t>
         </is>
       </c>
     </row>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>张庙邮政所</t>
+          <t>大场邮政支局</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16056</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16058</t>
         </is>
       </c>
     </row>
@@ -7959,7 +7959,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>淞南邮政所</t>
+          <t>南大路邮政所</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -7969,7 +7969,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16057</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16059</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>大场邮政支局</t>
+          <t>乾溪邮政所</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16058</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16060</t>
         </is>
       </c>
     </row>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>南大路邮政所</t>
+          <t>高境邮政支局</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16059</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16061</t>
         </is>
       </c>
     </row>
@@ -8055,7 +8055,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>乾溪邮政所</t>
+          <t>长江南路邮政所</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16060</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16062</t>
         </is>
       </c>
     </row>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>高境邮政支局</t>
+          <t>三门路邮政所</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16061</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16063</t>
         </is>
       </c>
     </row>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>长江南路邮政所</t>
+          <t>阳曲路邮政所</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16062</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16064</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>三门路邮政所</t>
+          <t>大华邮政支局</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16063</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16065</t>
         </is>
       </c>
     </row>
@@ -8183,7 +8183,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>阳曲路邮政所</t>
+          <t>华灵路邮政所</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16064</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16066</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>大华邮政支局</t>
+          <t>大华二路邮政所</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16065</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16067</t>
         </is>
       </c>
     </row>
@@ -8247,7 +8247,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>华灵路邮政所</t>
+          <t>庙行邮政支局</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16066</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16068</t>
         </is>
       </c>
     </row>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>大华二路邮政所</t>
+          <t>共康邮政所</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16067</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16069</t>
         </is>
       </c>
     </row>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>庙行邮政支局</t>
+          <t>聚丰园路邮政支局</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16068</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16070</t>
         </is>
       </c>
     </row>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>共康邮政所</t>
+          <t>锦秋邮政所</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -8353,7 +8353,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16069</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16071</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>聚丰园路邮政支局</t>
+          <t>友谊路邮政支局</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16070</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16073</t>
         </is>
       </c>
     </row>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>锦秋邮政所</t>
+          <t>宝林八村邮政所</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16071</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16074</t>
         </is>
       </c>
     </row>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>友谊路邮政支局</t>
+          <t>海江路邮政所</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16073</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16075</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>宝林八村邮政所</t>
+          <t>杨行邮政支局</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16074</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16076</t>
         </is>
       </c>
     </row>
@@ -8503,7 +8503,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>海江路邮政所</t>
+          <t>天馨花园邮政所</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16075</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16077</t>
         </is>
       </c>
     </row>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>杨行邮政支局</t>
+          <t>杨泰路邮政所</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -8545,7 +8545,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16076</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16078</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>天馨花园邮政所</t>
+          <t>顾村邮政支局</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16077</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16079</t>
         </is>
       </c>
     </row>
@@ -8599,7 +8599,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>杨泰路邮政所</t>
+          <t>新贸路邮政所</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16078</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16080</t>
         </is>
       </c>
     </row>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>顾村邮政支局</t>
+          <t>共富新村邮政所</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16079</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16081</t>
         </is>
       </c>
     </row>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>新贸路邮政所</t>
+          <t>刘行邮政支局</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -8673,7 +8673,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16080</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16082</t>
         </is>
       </c>
     </row>
@@ -8695,7 +8695,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>共富新村邮政所</t>
+          <t>菊盛路邮政所</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16081</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16083</t>
         </is>
       </c>
     </row>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>刘行邮政支局</t>
+          <t>罗店邮政支局</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16082</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16084</t>
         </is>
       </c>
     </row>
@@ -8759,7 +8759,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>菊盛路邮政所</t>
+          <t>长浜邮政所</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16083</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16085</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>罗店邮政支局</t>
+          <t>罗泾邮政支局</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16084</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16086</t>
         </is>
       </c>
     </row>
@@ -8823,7 +8823,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>长浜邮政所</t>
+          <t>潘沪路邮政所</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -8833,7 +8833,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16085</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16087</t>
         </is>
       </c>
     </row>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>罗泾邮政支局</t>
+          <t>吴淞邮政支局</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16086</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16088</t>
         </is>
       </c>
     </row>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>潘沪路邮政所</t>
+          <t>海滨新村邮政所</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16087</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16089</t>
         </is>
       </c>
     </row>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>吴淞邮政支局</t>
+          <t>淞青路邮政所</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -8929,7 +8929,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16088</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16090</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>海滨新村邮政所</t>
+          <t>三阳路邮政所</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16089</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16091</t>
         </is>
       </c>
     </row>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>淞青路邮政所</t>
+          <t>月浦邮政支局</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16090</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16092</t>
         </is>
       </c>
     </row>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>三阳路邮政所</t>
+          <t>盛桥邮政支局</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16091</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16093</t>
         </is>
       </c>
     </row>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>月浦邮政支局</t>
+          <t>绥化路邮政所</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -9057,7 +9057,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16092</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16094</t>
         </is>
       </c>
     </row>
@@ -9069,17 +9069,17 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>宝山区</t>
+          <t>虹口区</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>宝山区</t>
+          <t>虹口区</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>盛桥邮政支局</t>
+          <t>虹口邮政支局</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16093</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16095</t>
         </is>
       </c>
     </row>
@@ -9101,17 +9101,17 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>宝山区</t>
+          <t>虹口区</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>宝山区</t>
+          <t>虹口区</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>绥化路邮政所</t>
+          <t>鲁迅公园邮政支局</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -9121,7 +9121,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16094</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16097</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>虹口邮政支局</t>
+          <t>欧阳路邮政所</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -9153,7 +9153,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16095</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16098</t>
         </is>
       </c>
     </row>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>鲁迅公园邮政支局</t>
+          <t>华昌路邮政所</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16097</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16099</t>
         </is>
       </c>
     </row>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>欧阳路邮政所</t>
+          <t>北外滩邮政支局</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16098</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16100</t>
         </is>
       </c>
     </row>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>华昌路邮政所</t>
+          <t>长治路邮政所</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -9249,7 +9249,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16099</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16101</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>北外滩邮政支局</t>
+          <t>唐山路邮政所</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16100</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16102</t>
         </is>
       </c>
     </row>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>长治路邮政所</t>
+          <t>广中路邮政支局</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16101</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16103</t>
         </is>
       </c>
     </row>
@@ -9335,7 +9335,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>唐山路邮政所</t>
+          <t>广灵二路邮政所</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16102</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16104</t>
         </is>
       </c>
     </row>
@@ -9367,7 +9367,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>广中路邮政支局</t>
+          <t>玉田路邮政所</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16103</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16105</t>
         </is>
       </c>
     </row>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>广灵二路邮政所</t>
+          <t>临平路邮政支局</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -9409,7 +9409,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16104</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16106</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>玉田路邮政所</t>
+          <t>邮电新村邮政所</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16105</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16108</t>
         </is>
       </c>
     </row>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>临平路邮政支局</t>
+          <t>曲阳邮政支局</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16106</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16109</t>
         </is>
       </c>
     </row>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>邮电新村邮政所</t>
+          <t>运光邮政支局</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16108</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16110</t>
         </is>
       </c>
     </row>
@@ -9527,7 +9527,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>曲阳邮政支局</t>
+          <t>辉河路邮政所</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16109</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16111</t>
         </is>
       </c>
     </row>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>运光邮政支局</t>
+          <t>大连西路邮政所</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16110</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16112</t>
         </is>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>辉河路邮政所</t>
+          <t>车站北路邮政支局</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16111</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16113</t>
         </is>
       </c>
     </row>
@@ -9623,7 +9623,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>大连西路邮政所</t>
+          <t>江湾邮政支局</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -9633,7 +9633,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16112</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16114</t>
         </is>
       </c>
     </row>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>车站北路邮政支局</t>
+          <t>丰镇邮政所</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16113</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16115</t>
         </is>
       </c>
     </row>
@@ -9687,7 +9687,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>江湾邮政支局</t>
+          <t>凉城邮政所</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16114</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16116</t>
         </is>
       </c>
     </row>
@@ -9719,7 +9719,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>丰镇邮政所</t>
+          <t>四川路桥邮政支局</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -9729,7 +9729,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16115</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16117</t>
         </is>
       </c>
     </row>
@@ -9741,17 +9741,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>虹口区</t>
+          <t>奉贤区</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>虹口区</t>
+          <t>奉贤区</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>凉城邮政所</t>
+          <t>南桥邮政支局</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16116</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16118</t>
         </is>
       </c>
     </row>
@@ -9773,17 +9773,17 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>虹口区</t>
+          <t>奉贤区</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>虹口区</t>
+          <t>奉贤区</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>四川路桥邮政支局</t>
+          <t>育秀邮政所</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -9793,7 +9793,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16117</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16119</t>
         </is>
       </c>
     </row>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>南桥邮政支局</t>
+          <t>贝港邮政所</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -9825,7 +9825,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16118</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16120</t>
         </is>
       </c>
     </row>
@@ -9847,7 +9847,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>育秀邮政所</t>
+          <t>江海邮政所</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16119</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16121</t>
         </is>
       </c>
     </row>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>贝港邮政所</t>
+          <t>解放中路邮政所</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -9889,7 +9889,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16120</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16122</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>江海邮政所</t>
+          <t>肖塘邮政支局</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16121</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16123</t>
         </is>
       </c>
     </row>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>解放中路邮政所</t>
+          <t>西渡邮政所</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16122</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16124</t>
         </is>
       </c>
     </row>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>肖塘邮政支局</t>
+          <t>金汇邮政支局</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -9985,7 +9985,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16123</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16125</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>西渡邮政所</t>
+          <t>齐贤邮政支局</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16124</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16126</t>
         </is>
       </c>
     </row>
@@ -10039,7 +10039,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>金汇邮政支局</t>
+          <t>泰日邮政支局</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16125</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16127</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>齐贤邮政支局</t>
+          <t>奉城邮政支局</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16126</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16128</t>
         </is>
       </c>
     </row>
@@ -10103,7 +10103,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>泰日邮政支局</t>
+          <t>洪庙邮政所</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -10113,7 +10113,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16127</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16129</t>
         </is>
       </c>
     </row>
@@ -10135,7 +10135,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>奉城邮政支局</t>
+          <t>塘外邮政支局</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16128</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16130</t>
         </is>
       </c>
     </row>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>洪庙邮政所</t>
+          <t>头桥邮政支局</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -10177,7 +10177,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16129</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16131</t>
         </is>
       </c>
     </row>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>塘外邮政支局</t>
+          <t>平安邮政支局</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -10209,7 +10209,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16130</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16132</t>
         </is>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>头桥邮政支局</t>
+          <t>四团邮政支局</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16131</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16133</t>
         </is>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>平安邮政支局</t>
+          <t>邵厂邮政所</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16132</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16134</t>
         </is>
       </c>
     </row>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>四团邮政支局</t>
+          <t>五四邮政所</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16133</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16135</t>
         </is>
       </c>
     </row>
@@ -10327,7 +10327,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>邵厂邮政所</t>
+          <t>青村邮政支局</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16134</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16136</t>
         </is>
       </c>
     </row>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>五四邮政所</t>
+          <t>光明邮政支局</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -10369,7 +10369,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16135</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16137</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>青村邮政支局</t>
+          <t>钱桥邮政支局</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -10401,7 +10401,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16136</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16138</t>
         </is>
       </c>
     </row>
@@ -10423,7 +10423,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>光明邮政支局</t>
+          <t>庄行邮政支局</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16137</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16139</t>
         </is>
       </c>
     </row>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>钱桥邮政支局</t>
+          <t>邬桥邮政支局</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -10465,7 +10465,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16138</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16140</t>
         </is>
       </c>
     </row>
@@ -10487,7 +10487,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>庄行邮政支局</t>
+          <t>海湾邮政支局</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -10497,7 +10497,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16139</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16141</t>
         </is>
       </c>
     </row>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>邬桥邮政支局</t>
+          <t>新院邮政所</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16140</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16142</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>海湾邮政支局</t>
+          <t>柘林邮政支局</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16141</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16143</t>
         </is>
       </c>
     </row>
@@ -10583,7 +10583,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>新院邮政所</t>
+          <t>新寺邮政支局</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16142</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16144</t>
         </is>
       </c>
     </row>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>柘林邮政支局</t>
+          <t>胡桥邮政支局</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16143</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16145</t>
         </is>
       </c>
     </row>
@@ -10637,17 +10637,17 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>奉贤区</t>
+          <t>黄浦区</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>奉贤区</t>
+          <t>黄浦区</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>新寺邮政支局</t>
+          <t>黄浦邮政支局</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -10657,7 +10657,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16144</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16146</t>
         </is>
       </c>
     </row>
@@ -10669,17 +10669,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>奉贤区</t>
+          <t>黄浦区</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>奉贤区</t>
+          <t>黄浦区</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>胡桥邮政支局</t>
+          <t>云南中路邮政所</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16145</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16147</t>
         </is>
       </c>
     </row>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>黄浦邮政支局</t>
+          <t>福州路邮政所</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -10721,7 +10721,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16146</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16148</t>
         </is>
       </c>
     </row>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>云南中路邮政所</t>
+          <t>延安东路邮政所</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -10753,7 +10753,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16147</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16149</t>
         </is>
       </c>
     </row>
@@ -10775,7 +10775,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>福州路邮政所</t>
+          <t>外滩邮政支局</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16148</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16150</t>
         </is>
       </c>
     </row>
@@ -10807,7 +10807,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>延安东路邮政所</t>
+          <t>金陵东路邮政所</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -10817,7 +10817,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16149</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16151</t>
         </is>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>外滩邮政支局</t>
+          <t>人民公园邮政支局</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -10849,7 +10849,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16150</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16152</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>金陵东路邮政所</t>
+          <t>黄河路邮政所</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -10881,7 +10881,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16151</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16154</t>
         </is>
       </c>
     </row>
@@ -10903,7 +10903,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>人民公园邮政支局</t>
+          <t>南市邮政支局</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16152</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16155</t>
         </is>
       </c>
     </row>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>黄河路邮政所</t>
+          <t>老北门邮政所</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16154</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16156</t>
         </is>
       </c>
     </row>
@@ -10967,7 +10967,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>南市邮政支局</t>
+          <t>方浜中路邮政所</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -10977,7 +10977,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16155</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16157</t>
         </is>
       </c>
     </row>
@@ -10999,7 +10999,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>老北门邮政所</t>
+          <t>新开河路邮政所</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16156</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16158</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>方浜中路邮政所</t>
+          <t>南车站路邮政支局</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -11041,7 +11041,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16157</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16159</t>
         </is>
       </c>
     </row>
@@ -11063,7 +11063,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>新开河路邮政所</t>
+          <t>老西门邮政所</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -11073,7 +11073,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16158</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16160</t>
         </is>
       </c>
     </row>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>南车站路邮政支局</t>
+          <t>斜桥邮政所</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16159</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16161</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>老西门邮政所</t>
+          <t>高雄路邮政所</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -11137,7 +11137,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16160</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16162</t>
         </is>
       </c>
     </row>
@@ -11159,7 +11159,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>斜桥邮政所</t>
+          <t>大南门邮政所</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -11169,7 +11169,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16161</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16163</t>
         </is>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>高雄路邮政所</t>
+          <t>卢湾邮政支局</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16162</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16164</t>
         </is>
       </c>
     </row>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>大南门邮政所</t>
+          <t>龙门路邮政支局</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16163</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16165</t>
         </is>
       </c>
     </row>
@@ -11255,7 +11255,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>卢湾邮政支局</t>
+          <t>顺昌路邮政所</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -11265,7 +11265,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16164</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16166</t>
         </is>
       </c>
     </row>
@@ -11287,7 +11287,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>龙门路邮政支局</t>
+          <t>丽园路邮政支局</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16165</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16167</t>
         </is>
       </c>
     </row>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>顺昌路邮政所</t>
+          <t>卢浦大桥邮政所</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -11329,7 +11329,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16166</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16168</t>
         </is>
       </c>
     </row>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>丽园路邮政支局</t>
+          <t>制造局路邮政所</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -11361,7 +11361,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16167</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16169</t>
         </is>
       </c>
     </row>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>卢浦大桥邮政所</t>
+          <t>建国东路邮政支局</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -11393,7 +11393,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16168</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16170</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>制造局路邮政所</t>
+          <t>淡水路邮政所</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -11425,7 +11425,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16169</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16172</t>
         </is>
       </c>
     </row>
@@ -11437,17 +11437,17 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>黄浦区</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>黄浦区</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>建国东路邮政支局</t>
+          <t>陆家嘴邮政支局</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -11457,7 +11457,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16170</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16173</t>
         </is>
       </c>
     </row>
@@ -11469,17 +11469,17 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>黄浦区</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>黄浦区</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>淡水路邮政所</t>
+          <t>乳山邮政所</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -11489,7 +11489,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16172</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16174</t>
         </is>
       </c>
     </row>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>陆家嘴邮政支局</t>
+          <t>浦东大道邮政所</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16173</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16175</t>
         </is>
       </c>
     </row>
@@ -11543,7 +11543,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>乳山邮政所</t>
+          <t>浦电路邮政支局</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -11553,7 +11553,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16174</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16176</t>
         </is>
       </c>
     </row>
@@ -11575,7 +11575,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>浦东大道邮政所</t>
+          <t>潍坊邮政所</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16175</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16177</t>
         </is>
       </c>
     </row>
@@ -11607,7 +11607,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>浦电路邮政支局</t>
+          <t>竹园邮政所</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -11617,7 +11617,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16176</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16178</t>
         </is>
       </c>
     </row>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>潍坊邮政所</t>
+          <t>永泰路邮政支局</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -11649,7 +11649,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16177</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16179</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>竹园邮政所</t>
+          <t>凌兆邮政支局</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16178</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16181</t>
         </is>
       </c>
     </row>
@@ -11703,7 +11703,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>永泰路邮政支局</t>
+          <t>和炯路邮政所</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -11713,7 +11713,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16179</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16182</t>
         </is>
       </c>
     </row>
@@ -11735,7 +11735,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>凌兆邮政支局</t>
+          <t>临沂路邮政支局</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -11745,7 +11745,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16181</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16183</t>
         </is>
       </c>
     </row>
@@ -11767,7 +11767,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>和炯路邮政所</t>
+          <t>南码头邮政所</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -11777,7 +11777,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16182</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16184</t>
         </is>
       </c>
     </row>
@@ -11799,7 +11799,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>临沂路邮政支局</t>
+          <t>北艾路邮政支局</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16183</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16186</t>
         </is>
       </c>
     </row>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>南码头邮政所</t>
+          <t>世博邮政支局</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -11841,7 +11841,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16184</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16187</t>
         </is>
       </c>
     </row>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>北艾路邮政支局</t>
+          <t>杨思邮政所</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -11873,7 +11873,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16186</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16188</t>
         </is>
       </c>
     </row>
@@ -11895,7 +11895,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>世博邮政支局</t>
+          <t>云莲路邮政所</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -11905,7 +11905,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16187</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16189</t>
         </is>
       </c>
     </row>
@@ -11927,7 +11927,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>杨思邮政所</t>
+          <t>上钢新村邮政所</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16188</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16190</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>云莲路邮政所</t>
+          <t>蓝村路邮政支局</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16189</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16191</t>
         </is>
       </c>
     </row>
@@ -11991,7 +11991,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>上钢新村邮政所</t>
+          <t>塘桥邮政所</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16190</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16192</t>
         </is>
       </c>
     </row>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>蓝村路邮政支局</t>
+          <t>东陆邮政支局</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -12033,7 +12033,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16191</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16193</t>
         </is>
       </c>
     </row>
@@ -12055,7 +12055,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>塘桥邮政所</t>
+          <t>沪东新村邮政所</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -12065,7 +12065,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16192</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16194</t>
         </is>
       </c>
     </row>
@@ -12087,7 +12087,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>东陆邮政支局</t>
+          <t>博兴路邮政所</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -12097,7 +12097,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16193</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16195</t>
         </is>
       </c>
     </row>
@@ -12119,7 +12119,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>沪东新村邮政所</t>
+          <t>莱阳路邮政所</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -12129,7 +12129,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16194</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16196</t>
         </is>
       </c>
     </row>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>博兴路邮政所</t>
+          <t>张杨路邮政支局</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -12161,7 +12161,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16195</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16197</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>莱阳路邮政所</t>
+          <t>联洋邮政所</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -12193,7 +12193,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16196</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16198</t>
         </is>
       </c>
     </row>
@@ -12215,7 +12215,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>张杨路邮政支局</t>
+          <t>泾东邮政所</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16197</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16199</t>
         </is>
       </c>
     </row>
@@ -12247,7 +12247,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>联洋邮政所</t>
+          <t>浦东行政中心邮政所</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16198</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16200</t>
         </is>
       </c>
     </row>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>泾东邮政所</t>
+          <t>洋泾邮政所</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -12289,7 +12289,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16199</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16201</t>
         </is>
       </c>
     </row>
@@ -12311,7 +12311,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>浦东行政中心邮政所</t>
+          <t>金杨邮政支局</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -12321,7 +12321,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16200</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16202</t>
         </is>
       </c>
     </row>
@@ -12343,7 +12343,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>洋泾邮政所</t>
+          <t>金台路邮政所</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16201</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16203</t>
         </is>
       </c>
     </row>
@@ -12375,7 +12375,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>金杨邮政支局</t>
+          <t>云山路邮政所</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -12385,7 +12385,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16202</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16204</t>
         </is>
       </c>
     </row>
@@ -12407,7 +12407,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>金台路邮政所</t>
+          <t>庆宁寺邮政所</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16203</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16205</t>
         </is>
       </c>
     </row>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>云山路邮政所</t>
+          <t>金桥邮政支局</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16204</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16206</t>
         </is>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>庆宁寺邮政所</t>
+          <t>张桥邮政所</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -12481,7 +12481,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16205</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16207</t>
         </is>
       </c>
     </row>
@@ -12503,7 +12503,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>金桥邮政支局</t>
+          <t>碧云路邮政所</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -12513,7 +12513,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16206</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16208</t>
         </is>
       </c>
     </row>
@@ -12535,7 +12535,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>张桥邮政所</t>
+          <t>自由贸易试验区邮政支局</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -12545,7 +12545,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16207</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16209</t>
         </is>
       </c>
     </row>
@@ -12567,7 +12567,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>碧云路邮政所</t>
+          <t>加枫路邮政所</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -12577,7 +12577,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16208</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16210</t>
         </is>
       </c>
     </row>
@@ -12599,7 +12599,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>自由贸易试验区邮政支局</t>
+          <t>高桥邮政支局</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -12609,7 +12609,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16209</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16211</t>
         </is>
       </c>
     </row>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>加枫路邮政所</t>
+          <t>凌桥邮政所</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16210</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16212</t>
         </is>
       </c>
     </row>
@@ -12663,7 +12663,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>高桥邮政支局</t>
+          <t>高东邮政所</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -12673,7 +12673,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16211</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16213</t>
         </is>
       </c>
     </row>
@@ -12695,7 +12695,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>凌桥邮政所</t>
+          <t>新川邮政支局</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -12705,7 +12705,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16212</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16214</t>
         </is>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>高东邮政所</t>
+          <t>合庆邮政支局</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -12737,7 +12737,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16213</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16215</t>
         </is>
       </c>
     </row>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>新川邮政支局</t>
+          <t>王港邮政所</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16214</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16216</t>
         </is>
       </c>
     </row>
@@ -12791,7 +12791,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>合庆邮政支局</t>
+          <t>蔡路邮政所</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16215</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16217</t>
         </is>
       </c>
     </row>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>王港邮政所</t>
+          <t>江镇邮政支局</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -12833,7 +12833,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16216</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16218</t>
         </is>
       </c>
     </row>
@@ -12855,7 +12855,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>蔡路邮政所</t>
+          <t>六团邮政所</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -12865,7 +12865,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16217</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16219</t>
         </is>
       </c>
     </row>
@@ -12887,7 +12887,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>江镇邮政支局</t>
+          <t>春晓路邮政支局</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -12897,7 +12897,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16218</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16220</t>
         </is>
       </c>
     </row>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>六团邮政所</t>
+          <t>北蔡邮政支局</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -12929,7 +12929,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16219</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16221</t>
         </is>
       </c>
     </row>
@@ -12951,7 +12951,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>春晓路邮政支局</t>
+          <t>梅花路邮政所</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -12961,7 +12961,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16220</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16222</t>
         </is>
       </c>
     </row>
@@ -12983,7 +12983,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>北蔡邮政支局</t>
+          <t>培花新村邮政所</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16221</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16223</t>
         </is>
       </c>
     </row>
@@ -13015,7 +13015,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>梅花路邮政所</t>
+          <t>上海海关学院邮政所</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -13025,7 +13025,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16222</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16224</t>
         </is>
       </c>
     </row>
@@ -13047,7 +13047,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>培花新村邮政所</t>
+          <t>黄楼邮政支局</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -13057,7 +13057,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16223</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16225</t>
         </is>
       </c>
     </row>
@@ -13079,7 +13079,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>上海海关学院邮政所</t>
+          <t>浦东国际机场邮政支局</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -13089,7 +13089,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16224</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16226</t>
         </is>
       </c>
     </row>
@@ -13111,7 +13111,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>黄楼邮政支局</t>
+          <t>施湾邮政所</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -13121,7 +13121,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16225</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16227</t>
         </is>
       </c>
     </row>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>浦东国际机场邮政支局</t>
+          <t>浦东国际机场候机楼邮政所</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -13153,7 +13153,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16226</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16228</t>
         </is>
       </c>
     </row>
@@ -13175,7 +13175,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>施湾邮政所</t>
+          <t>浦东国际机场第二候机楼邮政所</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -13185,7 +13185,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16227</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16229</t>
         </is>
       </c>
     </row>
@@ -13207,7 +13207,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>浦东国际机场候机楼邮政所</t>
+          <t>高行邮政支局</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16228</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16230</t>
         </is>
       </c>
     </row>
@@ -13239,7 +13239,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>浦东国际机场第二候机楼邮政所</t>
+          <t>东沟邮政所</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -13249,7 +13249,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16229</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16231</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>高行邮政支局</t>
+          <t>杨园邮政所</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -13281,7 +13281,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16230</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16232</t>
         </is>
       </c>
     </row>
@@ -13303,7 +13303,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>东沟邮政所</t>
+          <t>园二路邮政所</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -13313,7 +13313,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16231</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16233</t>
         </is>
       </c>
     </row>
@@ -13335,7 +13335,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>杨园邮政所</t>
+          <t>华高邮政所</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -13345,7 +13345,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16232</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16234</t>
         </is>
       </c>
     </row>
@@ -13367,7 +13367,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>园二路邮政所</t>
+          <t>曹路邮政支局</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -13377,7 +13377,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16233</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16235</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>华高邮政所</t>
+          <t>龚路邮政所</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -13409,7 +13409,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16234</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16236</t>
         </is>
       </c>
     </row>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>曹路邮政支局</t>
+          <t>民春路邮政所</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16235</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16237</t>
         </is>
       </c>
     </row>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>龚路邮政所</t>
+          <t>张江邮政支局</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16236</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16238</t>
         </is>
       </c>
     </row>
@@ -13495,7 +13495,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>民春路邮政所</t>
+          <t>孙桥邮政所</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -13505,7 +13505,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16237</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16239</t>
         </is>
       </c>
     </row>
@@ -13527,7 +13527,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>张江邮政支局</t>
+          <t>唐镇邮政所</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16238</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16240</t>
         </is>
       </c>
     </row>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>孙桥邮政所</t>
+          <t>惠南邮政支局</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16239</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16241</t>
         </is>
       </c>
     </row>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>唐镇邮政所</t>
+          <t>荡湾邮政所</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16240</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16242</t>
         </is>
       </c>
     </row>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>惠南邮政支局</t>
+          <t>三灶邮政所</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -13633,7 +13633,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16241</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16243</t>
         </is>
       </c>
     </row>
@@ -13655,7 +13655,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>荡湾邮政所</t>
+          <t>黄路邮政所</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -13665,7 +13665,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16242</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16244</t>
         </is>
       </c>
     </row>
@@ -13687,7 +13687,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>三灶邮政所</t>
+          <t>中港邮政支局</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -13697,7 +13697,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16243</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16245</t>
         </is>
       </c>
     </row>
@@ -13719,7 +13719,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>黄路邮政所</t>
+          <t>新港邮政所</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16244</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16246</t>
         </is>
       </c>
     </row>
@@ -13751,7 +13751,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>中港邮政支局</t>
+          <t>泥城邮政支局</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -13761,7 +13761,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16245</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16247</t>
         </is>
       </c>
     </row>
@@ -13783,7 +13783,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>新港邮政所</t>
+          <t>海事大学邮政所</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -13793,7 +13793,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16246</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16248</t>
         </is>
       </c>
     </row>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>泥城邮政支局</t>
+          <t>海洋大学邮政所</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -13825,7 +13825,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16247</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16249</t>
         </is>
       </c>
     </row>
@@ -13847,7 +13847,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>海事大学邮政所</t>
+          <t>彭镇邮政所</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16248</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16250</t>
         </is>
       </c>
     </row>
@@ -13879,7 +13879,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>海洋大学邮政所</t>
+          <t>港辉路邮政所</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -13889,7 +13889,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16249</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16251</t>
         </is>
       </c>
     </row>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>彭镇邮政所</t>
+          <t>竹柏路邮政所</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -13921,7 +13921,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16250</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16252</t>
         </is>
       </c>
     </row>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>港辉路邮政所</t>
+          <t>大团邮政支局</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -13953,7 +13953,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16251</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16254</t>
         </is>
       </c>
     </row>
@@ -13975,7 +13975,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>竹柏路邮政所</t>
+          <t>三墩邮政所</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -13985,7 +13985,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16252</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16255</t>
         </is>
       </c>
     </row>
@@ -14007,7 +14007,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>大团邮政支局</t>
+          <t>万祥邮政支局</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16254</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16256</t>
         </is>
       </c>
     </row>
@@ -14039,7 +14039,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>三墩邮政所</t>
+          <t>东海农场邮政所</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -14049,7 +14049,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16255</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16257</t>
         </is>
       </c>
     </row>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>万祥邮政支局</t>
+          <t>书院邮政所</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -14081,7 +14081,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16256</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16258</t>
         </is>
       </c>
     </row>
@@ -14103,7 +14103,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>东海农场邮政所</t>
+          <t>新场邮政支局</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -14113,7 +14113,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16257</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16259</t>
         </is>
       </c>
     </row>
@@ -14135,7 +14135,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>书院邮政所</t>
+          <t>坦直邮政所</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -14145,7 +14145,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16258</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16260</t>
         </is>
       </c>
     </row>
@@ -14167,7 +14167,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>新场邮政支局</t>
+          <t>康桥邮政支局</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -14177,7 +14177,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16259</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16262</t>
         </is>
       </c>
     </row>
@@ -14199,7 +14199,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>坦直邮政所</t>
+          <t>横沔邮政所</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -14209,7 +14209,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16260</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16264</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>康桥邮政支局</t>
+          <t>下沙邮政支局</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -14241,7 +14241,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16262</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16265</t>
         </is>
       </c>
     </row>
@@ -14263,7 +14263,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>横沔邮政所</t>
+          <t>航头邮政所</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -14273,7 +14273,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16264</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16266</t>
         </is>
       </c>
     </row>
@@ -14295,7 +14295,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>下沙邮政支局</t>
+          <t>鹤永路邮政所</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -14305,7 +14305,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16265</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16267</t>
         </is>
       </c>
     </row>
@@ -14327,7 +14327,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>航头邮政所</t>
+          <t>周浦邮政支局</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -14337,7 +14337,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16266</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16268</t>
         </is>
       </c>
     </row>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>鹤永路邮政所</t>
+          <t>瓦屑邮政支局</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -14369,7 +14369,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16267</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16269</t>
         </is>
       </c>
     </row>
@@ -14391,7 +14391,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>周浦邮政支局</t>
+          <t>祝桥邮政支局</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -14401,7 +14401,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16268</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16270</t>
         </is>
       </c>
     </row>
@@ -14423,7 +14423,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>瓦屑邮政支局</t>
+          <t>六灶邮政所</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16269</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16271</t>
         </is>
       </c>
     </row>
@@ -14455,7 +14455,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>祝桥邮政支局</t>
+          <t>盐仓邮政支局</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -14465,7 +14465,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16270</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16272</t>
         </is>
       </c>
     </row>
@@ -14487,7 +14487,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>六灶邮政所</t>
+          <t>东海邮政所</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -14497,7 +14497,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16271</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16273</t>
         </is>
       </c>
     </row>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>盐仓邮政支局</t>
+          <t>朝阳农场邮政所</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -14529,7 +14529,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16272</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16274</t>
         </is>
       </c>
     </row>
@@ -14541,17 +14541,17 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>浦东新区</t>
+          <t>金山区</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>浦东新区</t>
+          <t>金山区</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>东海邮政所</t>
+          <t>漕泾邮政支局</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16273</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16275</t>
         </is>
       </c>
     </row>
@@ -14573,17 +14573,17 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>浦东新区</t>
+          <t>金山区</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>浦东新区</t>
+          <t>金山区</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>朝阳农场邮政所</t>
+          <t>东门邮政所</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -14593,7 +14593,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16274</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16276</t>
         </is>
       </c>
     </row>
@@ -14615,7 +14615,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>漕泾邮政支局</t>
+          <t>枫泾邮政支局</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -14625,7 +14625,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16275</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16277</t>
         </is>
       </c>
     </row>
@@ -14647,7 +14647,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>东门邮政所</t>
+          <t>干巷邮政支局</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -14657,7 +14657,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16276</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16278</t>
         </is>
       </c>
     </row>
@@ -14679,7 +14679,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>枫泾邮政支局</t>
+          <t>金龙新街邮政所</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -14689,7 +14689,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16277</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16280</t>
         </is>
       </c>
     </row>
@@ -14711,7 +14711,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>干巷邮政支局</t>
+          <t>金卫邮政支局</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16278</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16281</t>
         </is>
       </c>
     </row>
@@ -14743,7 +14743,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>金龙新街邮政所</t>
+          <t>廊下邮政支局</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -14753,7 +14753,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16280</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16282</t>
         </is>
       </c>
     </row>
@@ -14775,7 +14775,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>金卫邮政支局</t>
+          <t>吕巷邮政支局</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -14785,7 +14785,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16281</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16283</t>
         </is>
       </c>
     </row>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>廊下邮政支局</t>
+          <t>钱圩邮政支局</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16282</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16284</t>
         </is>
       </c>
     </row>
@@ -14839,7 +14839,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>吕巷邮政支局</t>
+          <t>石化邮政支局</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -14849,7 +14849,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16283</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16286</t>
         </is>
       </c>
     </row>
@@ -14871,7 +14871,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>钱圩邮政支局</t>
+          <t>松隐邮政支局</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -14881,7 +14881,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16284</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16287</t>
         </is>
       </c>
     </row>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>石化邮政支局</t>
+          <t>亭林邮政支局</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16286</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16288</t>
         </is>
       </c>
     </row>
@@ -14935,7 +14935,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>松隐邮政支局</t>
+          <t>万安邮政所</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16287</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16289</t>
         </is>
       </c>
     </row>
@@ -14967,7 +14967,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>亭林邮政支局</t>
+          <t>兴塔邮政支局</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -14977,7 +14977,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16288</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16290</t>
         </is>
       </c>
     </row>
@@ -14999,7 +14999,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>万安邮政所</t>
+          <t>张堰邮政支局</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -15009,7 +15009,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16289</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16291</t>
         </is>
       </c>
     </row>
@@ -15031,7 +15031,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>兴塔邮政支局</t>
+          <t>朱行邮政支局</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -15041,7 +15041,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16290</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16292</t>
         </is>
       </c>
     </row>
@@ -15063,7 +15063,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>张堰邮政支局</t>
+          <t>朱泾邮政支局</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -15073,7 +15073,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16291</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16293</t>
         </is>
       </c>
     </row>
@@ -15085,17 +15085,17 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>金山区</t>
+          <t>普陀区</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>金山区</t>
+          <t>普陀区</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>朱行邮政支局</t>
+          <t>普陀邮政支局</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -15105,7 +15105,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16292</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16294</t>
         </is>
       </c>
     </row>
@@ -15117,17 +15117,17 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>金山区</t>
+          <t>普陀区</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>金山区</t>
+          <t>普陀区</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>朱泾邮政支局</t>
+          <t>叶家宅邮政所</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -15137,7 +15137,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16293</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16295</t>
         </is>
       </c>
     </row>
@@ -15159,7 +15159,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>普陀邮政支局</t>
+          <t>昌化路邮政所</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -15169,7 +15169,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16294</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16296</t>
         </is>
       </c>
     </row>
@@ -15191,7 +15191,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>叶家宅邮政所</t>
+          <t>曹杨新村邮政支局</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -15201,7 +15201,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16295</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16297</t>
         </is>
       </c>
     </row>
@@ -15223,7 +15223,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>昌化路邮政所</t>
+          <t>华东师大邮政所</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -15233,7 +15233,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16296</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16298</t>
         </is>
       </c>
     </row>
@@ -15255,7 +15255,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>曹杨新村邮政支局</t>
+          <t>大渡河路邮政所</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16297</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16299</t>
         </is>
       </c>
     </row>
@@ -15287,7 +15287,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>华东师大邮政所</t>
+          <t>武宁路邮政支局</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16298</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16300</t>
         </is>
       </c>
     </row>
@@ -15319,7 +15319,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>大渡河路邮政所</t>
+          <t>北石路邮政所</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -15329,7 +15329,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16299</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16301</t>
         </is>
       </c>
     </row>
@@ -15351,7 +15351,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>武宁路邮政支局</t>
+          <t>沪太邮政支局</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -15361,7 +15361,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16300</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16302</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>北石路邮政所</t>
+          <t>石泉路邮政支局</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -15393,7 +15393,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16301</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16303</t>
         </is>
       </c>
     </row>
@@ -15415,7 +15415,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>沪太邮政支局</t>
+          <t>宜川邮政所</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -15425,7 +15425,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16302</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16304</t>
         </is>
       </c>
     </row>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>石泉路邮政支局</t>
+          <t>桃浦邮政支局</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -15457,7 +15457,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16303</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16306</t>
         </is>
       </c>
     </row>
@@ -15479,7 +15479,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>宜川邮政所</t>
+          <t>红棉路邮政所</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -15489,7 +15489,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16304</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16307</t>
         </is>
       </c>
     </row>
@@ -15511,7 +15511,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>桃浦邮政支局</t>
+          <t>武威西路邮政所</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -15521,7 +15521,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16306</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16308</t>
         </is>
       </c>
     </row>
@@ -15543,7 +15543,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>红棉路邮政所</t>
+          <t>万泉路邮政所</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16307</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16309</t>
         </is>
       </c>
     </row>
@@ -15575,7 +15575,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>武威西路邮政所</t>
+          <t>真如邮政支局</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -15585,7 +15585,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16308</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16310</t>
         </is>
       </c>
     </row>
@@ -15607,7 +15607,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>万泉路邮政所</t>
+          <t>万里邮政所</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -15617,7 +15617,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16309</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16311</t>
         </is>
       </c>
     </row>
@@ -15639,7 +15639,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>真如邮政支局</t>
+          <t>真光邮政所</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16310</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16312</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>万里邮政所</t>
+          <t>火车西站邮政所</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16311</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16313</t>
         </is>
       </c>
     </row>
@@ -15693,17 +15693,17 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>普陀区</t>
+          <t>青浦区</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>普陀区</t>
+          <t>青浦区</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>真光邮政所</t>
+          <t>青浦镇邮政支局</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -15713,7 +15713,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16312</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16314</t>
         </is>
       </c>
     </row>
@@ -15725,17 +15725,17 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>普陀区</t>
+          <t>青浦区</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>普陀区</t>
+          <t>青浦区</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>火车西站邮政所</t>
+          <t>庆华邮政所</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -15745,7 +15745,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16313</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16316</t>
         </is>
       </c>
     </row>
@@ -15767,7 +15767,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>青浦镇邮政支局</t>
+          <t>城中邮政所</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16314</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16317</t>
         </is>
       </c>
     </row>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>庆华邮政所</t>
+          <t>青东农场邮政所</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
@@ -15809,7 +15809,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16316</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16318</t>
         </is>
       </c>
     </row>
@@ -15831,7 +15831,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>城中邮政所</t>
+          <t>徐泾邮政支局</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -15841,7 +15841,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16317</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16319</t>
         </is>
       </c>
     </row>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>青东农场邮政所</t>
+          <t>赵巷邮政支局</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
@@ -15873,7 +15873,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16318</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16320</t>
         </is>
       </c>
     </row>
@@ -15895,7 +15895,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>徐泾邮政支局</t>
+          <t>重固邮政支局</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -15905,7 +15905,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16319</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16322</t>
         </is>
       </c>
     </row>
@@ -15927,7 +15927,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>赵巷邮政支局</t>
+          <t>香花邮政支局</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -15937,7 +15937,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16320</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16323</t>
         </is>
       </c>
     </row>
@@ -15959,7 +15959,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>重固邮政支局</t>
+          <t>白鹤邮政支局</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -15969,7 +15969,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16322</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16324</t>
         </is>
       </c>
     </row>
@@ -15991,7 +15991,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>香花邮政支局</t>
+          <t>赵屯邮政支局</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -16001,7 +16001,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16323</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16325</t>
         </is>
       </c>
     </row>
@@ -16023,7 +16023,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>白鹤邮政支局</t>
+          <t>大盈邮政支局</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -16033,7 +16033,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16324</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16326</t>
         </is>
       </c>
     </row>
@@ -16055,7 +16055,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>赵屯邮政支局</t>
+          <t>华新邮政支局</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -16065,7 +16065,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16325</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16327</t>
         </is>
       </c>
     </row>
@@ -16087,7 +16087,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>大盈邮政支局</t>
+          <t>凤溪邮政支局</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16326</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16328</t>
         </is>
       </c>
     </row>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>华新邮政支局</t>
+          <t>朱家角邮政支局</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -16129,7 +16129,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16327</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16329</t>
         </is>
       </c>
     </row>
@@ -16151,7 +16151,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>凤溪邮政支局</t>
+          <t>新风邮政所</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -16161,7 +16161,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16328</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16330</t>
         </is>
       </c>
     </row>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>朱家角邮政支局</t>
+          <t>沈巷邮政支局</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -16193,7 +16193,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16329</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16331</t>
         </is>
       </c>
     </row>
@@ -16215,7 +16215,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>新风邮政所</t>
+          <t>练塘邮政支局</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -16225,7 +16225,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16330</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16332</t>
         </is>
       </c>
     </row>
@@ -16247,7 +16247,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>沈巷邮政支局</t>
+          <t>小蒸邮政支局</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16331</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16333</t>
         </is>
       </c>
     </row>
@@ -16279,7 +16279,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>练塘邮政支局</t>
+          <t>蒸淀邮政支局</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
@@ -16289,7 +16289,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16332</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16334</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16311,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>小蒸邮政支局</t>
+          <t>金泽邮政支局</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -16321,7 +16321,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16333</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16335</t>
         </is>
       </c>
     </row>
@@ -16343,7 +16343,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>蒸淀邮政支局</t>
+          <t>商榻邮政支局</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -16353,7 +16353,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16334</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16336</t>
         </is>
       </c>
     </row>
@@ -16375,7 +16375,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>金泽邮政支局</t>
+          <t>西岑邮政支局</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
@@ -16385,7 +16385,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16335</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16337</t>
         </is>
       </c>
     </row>
@@ -16407,7 +16407,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>商榻邮政支局</t>
+          <t>莲盛邮政支局</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
@@ -16417,7 +16417,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16336</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16338</t>
         </is>
       </c>
     </row>
@@ -16429,17 +16429,17 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>青浦区</t>
+          <t>杨浦区</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>青浦区</t>
+          <t>杨浦区</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>西岑邮政支局</t>
+          <t>第二军医大学邮政所</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -16449,7 +16449,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16337</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16923</t>
         </is>
       </c>
     </row>
@@ -16461,17 +16461,17 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>青浦区</t>
+          <t>静安区</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>青浦区</t>
+          <t>静安区</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>莲盛邮政支局</t>
+          <t>常德路邮政所</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -16481,7 +16481,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16338</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16924</t>
         </is>
       </c>
     </row>
@@ -16493,17 +16493,17 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>杨浦区</t>
+          <t>嘉定区</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>杨浦区</t>
+          <t>嘉定区</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>第二军医大学邮政所</t>
+          <t>同济大学嘉定分校邮政所</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
@@ -16513,7 +16513,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16923</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16930</t>
         </is>
       </c>
     </row>
@@ -16525,17 +16525,17 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>静安区</t>
+          <t>嘉定区</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>静安区</t>
+          <t>嘉定区</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>常德路邮政所</t>
+          <t>安礼路邮政所</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -16545,7 +16545,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16924</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16931</t>
         </is>
       </c>
     </row>
@@ -16557,17 +16557,17 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>嘉定区</t>
+          <t>静安区</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>嘉定区</t>
+          <t>静安区</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>同济大学嘉定分校邮政所</t>
+          <t>静安邮政支局</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -16577,7 +16577,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16930</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16932</t>
         </is>
       </c>
     </row>
@@ -16589,17 +16589,17 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>嘉定区</t>
+          <t>松江区</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>嘉定区</t>
+          <t>松江区</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>安礼路邮政所</t>
+          <t>车墩邮政支局</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
@@ -16609,7 +16609,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16931</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=47732</t>
         </is>
       </c>
     </row>
@@ -16621,17 +16621,17 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>静安区</t>
+          <t>长宁区</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>静安区</t>
+          <t>长宁区</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>静安邮政支局</t>
+          <t>延安西路邮政所</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -16641,7 +16641,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=16932</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=51344</t>
         </is>
       </c>
     </row>
@@ -16653,17 +16653,17 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>松江区</t>
+          <t>杨浦区</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>松江区</t>
+          <t>杨浦区</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>车墩邮政支局</t>
+          <t>定海邮政所</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -16673,7 +16673,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=47732</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=53995</t>
         </is>
       </c>
     </row>
@@ -16685,17 +16685,17 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>长宁区</t>
+          <t>杨浦区</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>长宁区</t>
+          <t>杨浦区</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>延安西路邮政所</t>
+          <t>杭州路邮政所</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
@@ -16705,7 +16705,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=51344</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=53996</t>
         </is>
       </c>
     </row>
@@ -16717,17 +16717,17 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>杨浦区</t>
+          <t>闵行区</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>杨浦区</t>
+          <t>闵行区</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>定海邮政所</t>
+          <t>古龙路邮政所</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
@@ -16737,7 +16737,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=53995</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=54571</t>
         </is>
       </c>
     </row>
@@ -16749,17 +16749,17 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>杨浦区</t>
+          <t>宝山区</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>杨浦区</t>
+          <t>宝山区</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>杭州路邮政所</t>
+          <t>美平路邮政所</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -16769,7 +16769,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=53996</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=54626</t>
         </is>
       </c>
     </row>
@@ -16781,17 +16781,17 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>闵行区</t>
+          <t>徐汇区</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>闵行区</t>
+          <t>徐汇区</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>古龙路邮政所</t>
+          <t>中国邮政集团有限公司上海市徐汇区华滨家园邮政所</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -16801,7 +16801,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=54571</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=54816</t>
         </is>
       </c>
     </row>
@@ -16813,17 +16813,17 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>宝山区</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>宝山区</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>美平路邮政所</t>
+          <t>周泰路邮政所</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=54626</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=54834</t>
         </is>
       </c>
     </row>
@@ -16845,17 +16845,17 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>徐汇区</t>
+          <t>松江区</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>徐汇区</t>
+          <t>松江区</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>中国邮政集团有限公司上海市徐汇区华滨家园邮政所</t>
+          <t>城鸿路邮政所</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -16865,7 +16865,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=54816</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=54987</t>
         </is>
       </c>
     </row>
@@ -16877,17 +16877,17 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>浦东新区</t>
+          <t>崇明区</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>浦东新区</t>
+          <t>崇明区</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>周泰路邮政所</t>
+          <t>仁建路邮政所</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
@@ -16897,7 +16897,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=54834</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55018</t>
         </is>
       </c>
     </row>
@@ -16909,17 +16909,17 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>松江区</t>
+          <t>长宁区</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>松江区</t>
+          <t>长宁区</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>城鸿路邮政所</t>
+          <t>虹桥临空邮政所</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -16929,7 +16929,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=54987</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55037</t>
         </is>
       </c>
     </row>
@@ -16941,17 +16941,17 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>崇明区</t>
+          <t>青浦区</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>崇明区</t>
+          <t>青浦区</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>仁建路邮政所</t>
+          <t>乐爱路邮政所</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -16961,7 +16961,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55018</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55106</t>
         </is>
       </c>
     </row>
@@ -16973,17 +16973,17 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>长宁区</t>
+          <t>虹口区</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>长宁区</t>
+          <t>虹口区</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>虹桥临空邮政所</t>
+          <t>虹湾路邮政所</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -16993,7 +16993,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55037</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55275</t>
         </is>
       </c>
     </row>
@@ -17005,17 +17005,17 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>青浦区</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>青浦区</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>乐爱路邮政所</t>
+          <t>中国邮政集团有限公司上海市浦东新区东方路邮政所</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -17025,7 +17025,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55106</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55478</t>
         </is>
       </c>
     </row>
@@ -17037,17 +17037,17 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>虹口区</t>
+          <t>黄浦区</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>虹口区</t>
+          <t>黄浦区</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>虹湾路邮政所</t>
+          <t>局门路邮政所</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -17057,7 +17057,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55275</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55507</t>
         </is>
       </c>
     </row>
@@ -17069,17 +17069,17 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>浦东新区</t>
+          <t>嘉定区</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>浦东新区</t>
+          <t>嘉定区</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>中国邮政集团有限公司上海市浦东新区东方路邮政所</t>
+          <t>芳林路邮政所</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -17089,7 +17089,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55478</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55755</t>
         </is>
       </c>
     </row>
@@ -17101,17 +17101,17 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>黄浦区</t>
+          <t>青浦区</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>黄浦区</t>
+          <t>青浦区</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>局门路邮政所</t>
+          <t>崧泉路邮政所</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -17121,7 +17121,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55507</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55774</t>
         </is>
       </c>
     </row>
@@ -17133,17 +17133,17 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>嘉定区</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>嘉定区</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>芳林路邮政所</t>
+          <t>听谐路邮政所</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -17153,7 +17153,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55755</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55806</t>
         </is>
       </c>
     </row>
@@ -17165,17 +17165,17 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>青浦区</t>
+          <t>松江区</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>青浦区</t>
+          <t>松江区</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>崧泉路邮政所</t>
+          <t>仓丰路邮政所</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -17185,7 +17185,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55774</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55841</t>
         </is>
       </c>
     </row>
@@ -17197,17 +17197,17 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>浦东新区</t>
+          <t>金山区</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>浦东新区</t>
+          <t>金山区</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>听谐路邮政所</t>
+          <t>中国邮政集团有限公司上海市金山区学府路邮政所</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
@@ -17217,7 +17217,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55806</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56083</t>
         </is>
       </c>
     </row>
@@ -17229,17 +17229,17 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>松江区</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>松江区</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>仓丰路邮政所</t>
+          <t>宣中路邮政所</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -17249,7 +17249,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=55841</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56107</t>
         </is>
       </c>
     </row>
@@ -17261,17 +17261,17 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>金山区</t>
+          <t>闵行区</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>金山区</t>
+          <t>闵行区</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>中国邮政集团有限公司上海市金山区学府路邮政所</t>
+          <t>立跃路邮政所</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
@@ -17281,7 +17281,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56083</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56110</t>
         </is>
       </c>
     </row>
@@ -17293,17 +17293,17 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>浦东新区</t>
+          <t>长宁区</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>浦东新区</t>
+          <t>长宁区</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>宣中路邮政所</t>
+          <t>中国邮政集团有限公司上海市长宁区新泾三村邮政所</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -17313,7 +17313,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56107</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56151</t>
         </is>
       </c>
     </row>
@@ -17325,17 +17325,17 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>闵行区</t>
+          <t>杨浦区</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>闵行区</t>
+          <t>杨浦区</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>立跃路邮政所</t>
+          <t>政和路邮政所</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
@@ -17345,7 +17345,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56110</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56153</t>
         </is>
       </c>
     </row>
@@ -17357,17 +17357,17 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>长宁区</t>
+          <t>普陀区</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>长宁区</t>
+          <t>普陀区</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>中国邮政集团有限公司上海市长宁区新泾三村邮政所</t>
+          <t>祁连山南路邮政所</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
@@ -17377,7 +17377,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56151</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56260</t>
         </is>
       </c>
     </row>
@@ -17389,17 +17389,17 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>杨浦区</t>
+          <t>金山区</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>杨浦区</t>
+          <t>金山区</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>政和路邮政所</t>
+          <t>中国邮政集团有限公司上海市金山区海丰路邮政支局</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -17409,7 +17409,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56153</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56351</t>
         </is>
       </c>
     </row>
@@ -17421,17 +17421,17 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>普陀区</t>
+          <t>嘉定区</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>普陀区</t>
+          <t>嘉定区</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>祁连山南路邮政所</t>
+          <t>嘉好路邮政所</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
@@ -17441,7 +17441,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56260</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56395</t>
         </is>
       </c>
     </row>
@@ -17453,17 +17453,17 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>金山区</t>
+          <t>虹口区</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>金山区</t>
+          <t>虹口区</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>中国邮政集团有限公司上海市金山区海丰路邮政支局</t>
+          <t>同心路邮政所</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -17473,7 +17473,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56351</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56428</t>
         </is>
       </c>
     </row>
@@ -17495,7 +17495,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>嘉好路邮政所</t>
+          <t>民悦街邮政所</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -17505,7 +17505,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56395</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56471</t>
         </is>
       </c>
     </row>
@@ -17517,17 +17517,17 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>虹口区</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>虹口区</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>同心路邮政所</t>
+          <t>鹤雷路邮政所</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -17537,7 +17537,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56428</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56478</t>
         </is>
       </c>
     </row>
@@ -17549,17 +17549,17 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>嘉定区</t>
+          <t>松江区</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>嘉定区</t>
+          <t>松江区</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>民悦街邮政所</t>
+          <t>香亭路邮政所</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -17569,7 +17569,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56471</t>
+          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56504</t>
         </is>
       </c>
     </row>
@@ -17581,17 +17581,17 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>浦东新区</t>
+          <t>徐汇区</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>浦东新区</t>
+          <t>徐汇区</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>鹤雷路邮政所</t>
+          <t>吴中路邮政所</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -17600,70 +17600,6 @@
         </is>
       </c>
       <c r="F537" t="inlineStr">
-        <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56478</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>上海市</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>松江区</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr">
-        <is>
-          <t>松江区</t>
-        </is>
-      </c>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>香亭路邮政所</t>
-        </is>
-      </c>
-      <c r="E538" t="inlineStr">
-        <is>
-          <t>信件、印刷品、包裹、邮政汇兑、国际业务、港澳台业务、报刊订阅</t>
-        </is>
-      </c>
-      <c r="F538" t="inlineStr">
-        <is>
-          <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56504</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>上海市</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>徐汇区</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>徐汇区</t>
-        </is>
-      </c>
-      <c r="D539" t="inlineStr">
-        <is>
-          <t>吴中路邮政所</t>
-        </is>
-      </c>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>信件、印刷品、包裹、邮政汇兑、国际业务、港澳台业务、报刊订阅</t>
-        </is>
-      </c>
-      <c r="F539" t="inlineStr">
         <is>
           <t>https://zwfw.spb.gov.cn/sj/310000/pfyycsml/pfyycsmlDetail?uuid=56573</t>
         </is>
